--- a/SchedulingData/dynamic14/pso/scheduling1_18.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_18.xlsx
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.44</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.256</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.44</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>107.24</v>
+        <v>87.78</v>
       </c>
       <c r="E3" t="n">
-        <v>22.096</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>52.8</v>
+        <v>115.9</v>
       </c>
       <c r="E4" t="n">
-        <v>25.92</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="5">
@@ -523,188 +523,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.31999999999999</v>
+        <v>51.02</v>
       </c>
       <c r="E5" t="n">
-        <v>27.008</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66.31999999999999</v>
+        <v>115.9</v>
       </c>
       <c r="D6" t="n">
-        <v>116.12</v>
+        <v>159.74</v>
       </c>
       <c r="E6" t="n">
-        <v>23.168</v>
+        <v>19.456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>62.78</v>
+        <v>44.16</v>
       </c>
       <c r="E7" t="n">
-        <v>25.892</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62.78</v>
+        <v>44.16</v>
       </c>
       <c r="D8" t="n">
-        <v>127.08</v>
+        <v>113.28</v>
       </c>
       <c r="E8" t="n">
-        <v>21.572</v>
+        <v>22.952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>113.28</v>
       </c>
       <c r="D9" t="n">
-        <v>58.76</v>
+        <v>149.6</v>
       </c>
       <c r="E9" t="n">
-        <v>26.784</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116.12</v>
+        <v>87.78</v>
       </c>
       <c r="D10" t="n">
-        <v>199.02</v>
+        <v>158.78</v>
       </c>
       <c r="E10" t="n">
-        <v>18.488</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.8</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>116.18</v>
+        <v>53.88</v>
       </c>
       <c r="E11" t="n">
-        <v>22.672</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>127.08</v>
+        <v>149.6</v>
       </c>
       <c r="D12" t="n">
-        <v>161.26</v>
+        <v>196.32</v>
       </c>
       <c r="E12" t="n">
-        <v>19.284</v>
+        <v>15.928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>58.76</v>
+        <v>159.74</v>
       </c>
       <c r="D13" t="n">
-        <v>124.52</v>
+        <v>211.14</v>
       </c>
       <c r="E13" t="n">
-        <v>23.308</v>
+        <v>17.416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>211.14</v>
       </c>
       <c r="D14" t="n">
-        <v>86.3</v>
+        <v>281.84</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199.02</v>
+        <v>51.02</v>
       </c>
       <c r="D15" t="n">
-        <v>244.34</v>
+        <v>122.64</v>
       </c>
       <c r="E15" t="n">
-        <v>15.576</v>
+        <v>23.056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116.18</v>
+        <v>53.88</v>
       </c>
       <c r="D16" t="n">
-        <v>173.22</v>
+        <v>113.96</v>
       </c>
       <c r="E16" t="n">
-        <v>19.088</v>
+        <v>23.884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>173.22</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>217.06</v>
+        <v>57.66</v>
       </c>
       <c r="E17" t="n">
-        <v>15.344</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>217.06</v>
+        <v>113.96</v>
       </c>
       <c r="D18" t="n">
-        <v>255.72</v>
+        <v>167.6</v>
       </c>
       <c r="E18" t="n">
-        <v>12.608</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>86.3</v>
+        <v>57.66</v>
       </c>
       <c r="D19" t="n">
-        <v>149.7</v>
+        <v>101.46</v>
       </c>
       <c r="E19" t="n">
-        <v>21.78</v>
+        <v>24.644</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>149.7</v>
+        <v>167.6</v>
       </c>
       <c r="D20" t="n">
-        <v>203.28</v>
+        <v>204.1</v>
       </c>
       <c r="E20" t="n">
-        <v>19.052</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>107.24</v>
+        <v>204.1</v>
       </c>
       <c r="D21" t="n">
-        <v>147.52</v>
+        <v>258.88</v>
       </c>
       <c r="E21" t="n">
-        <v>18.708</v>
+        <v>13.772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>203.28</v>
+        <v>196.32</v>
       </c>
       <c r="D22" t="n">
-        <v>251.82</v>
+        <v>264.22</v>
       </c>
       <c r="E22" t="n">
-        <v>15.828</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>124.52</v>
+        <v>101.46</v>
       </c>
       <c r="D23" t="n">
-        <v>202.96</v>
+        <v>162.52</v>
       </c>
       <c r="E23" t="n">
-        <v>20.084</v>
+        <v>21.168</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>244.34</v>
+        <v>122.64</v>
       </c>
       <c r="D24" t="n">
-        <v>315.56</v>
+        <v>180.64</v>
       </c>
       <c r="E24" t="n">
-        <v>11.544</v>
+        <v>18.896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>147.52</v>
+        <v>162.52</v>
       </c>
       <c r="D25" t="n">
-        <v>221.64</v>
+        <v>240.78</v>
       </c>
       <c r="E25" t="n">
-        <v>14.396</v>
+        <v>17.472</v>
       </c>
     </row>
     <row r="26">
@@ -922,283 +922,283 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>161.26</v>
+        <v>240.78</v>
       </c>
       <c r="D26" t="n">
-        <v>200.26</v>
+        <v>296.88</v>
       </c>
       <c r="E26" t="n">
-        <v>16.524</v>
+        <v>12.992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>221.64</v>
+        <v>258.88</v>
       </c>
       <c r="D27" t="n">
-        <v>264.94</v>
+        <v>324.94</v>
       </c>
       <c r="E27" t="n">
-        <v>12.196</v>
+        <v>11.276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>315.56</v>
+        <v>281.84</v>
       </c>
       <c r="D28" t="n">
-        <v>380.12</v>
+        <v>347.54</v>
       </c>
       <c r="E28" t="n">
-        <v>9.167999999999999</v>
+        <v>10.496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>255.72</v>
+        <v>158.78</v>
       </c>
       <c r="D29" t="n">
-        <v>291.98</v>
+        <v>187.18</v>
       </c>
       <c r="E29" t="n">
-        <v>10.112</v>
+        <v>19.192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>200.26</v>
+        <v>187.18</v>
       </c>
       <c r="D30" t="n">
-        <v>253.06</v>
+        <v>230.74</v>
       </c>
       <c r="E30" t="n">
-        <v>12.884</v>
+        <v>16.456</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>251.82</v>
+        <v>230.74</v>
       </c>
       <c r="D31" t="n">
-        <v>289.02</v>
+        <v>317.44</v>
       </c>
       <c r="E31" t="n">
-        <v>12.748</v>
+        <v>12.376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>291.98</v>
+        <v>180.64</v>
       </c>
       <c r="D32" t="n">
-        <v>342.22</v>
+        <v>250.04</v>
       </c>
       <c r="E32" t="n">
-        <v>7.208</v>
+        <v>15.056</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>289.02</v>
+        <v>250.04</v>
       </c>
       <c r="D33" t="n">
-        <v>361.12</v>
+        <v>303.54</v>
       </c>
       <c r="E33" t="n">
-        <v>9.628</v>
+        <v>11.336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>202.96</v>
+        <v>296.88</v>
       </c>
       <c r="D34" t="n">
-        <v>284.26</v>
+        <v>356.28</v>
       </c>
       <c r="E34" t="n">
-        <v>18.044</v>
+        <v>8.672000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>342.22</v>
+        <v>324.94</v>
       </c>
       <c r="D35" t="n">
-        <v>408.02</v>
+        <v>377.54</v>
       </c>
       <c r="E35" t="n">
-        <v>4.248</v>
+        <v>7.636</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>253.06</v>
+        <v>347.54</v>
       </c>
       <c r="D36" t="n">
-        <v>305.22</v>
+        <v>393.9</v>
       </c>
       <c r="E36" t="n">
-        <v>10.288</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>305.22</v>
+        <v>377.54</v>
       </c>
       <c r="D37" t="n">
-        <v>353.78</v>
+        <v>444.34</v>
       </c>
       <c r="E37" t="n">
-        <v>7.552</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>353.78</v>
+        <v>393.9</v>
       </c>
       <c r="D38" t="n">
-        <v>414.68</v>
+        <v>448.56</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592</v>
+        <v>5.104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>380.12</v>
+        <v>448.56</v>
       </c>
       <c r="D39" t="n">
-        <v>441.12</v>
+        <v>482.74</v>
       </c>
       <c r="E39" t="n">
-        <v>4.688</v>
+        <v>2.816</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>361.12</v>
+        <v>317.44</v>
       </c>
       <c r="D40" t="n">
-        <v>418.12</v>
+        <v>372.34</v>
       </c>
       <c r="E40" t="n">
-        <v>5.548</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="41">
@@ -1207,71 +1207,71 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>414.68</v>
+        <v>356.28</v>
       </c>
       <c r="D41" t="n">
-        <v>457.6</v>
+        <v>404.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.448</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>457.6</v>
+        <v>372.34</v>
       </c>
       <c r="D42" t="n">
-        <v>547.3200000000001</v>
+        <v>437.14</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>4.136</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>408.02</v>
+        <v>404.72</v>
       </c>
       <c r="D43" t="n">
-        <v>492.2</v>
+        <v>483.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>492.2</v>
+        <v>483.3</v>
       </c>
       <c r="D44" t="n">
-        <v>558.4</v>
+        <v>575.4</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1279,189 +1279,189 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>284.26</v>
+        <v>575.4</v>
       </c>
       <c r="D45" t="n">
-        <v>374.16</v>
+        <v>638.52</v>
       </c>
       <c r="E45" t="n">
-        <v>14.624</v>
+        <v>27.348</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>558.4</v>
+        <v>303.54</v>
       </c>
       <c r="D46" t="n">
-        <v>623.9</v>
+        <v>357.4</v>
       </c>
       <c r="E46" t="n">
-        <v>26.62</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>374.16</v>
+        <v>357.4</v>
       </c>
       <c r="D47" t="n">
-        <v>449.06</v>
+        <v>414.6</v>
       </c>
       <c r="E47" t="n">
-        <v>9.763999999999999</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>264.94</v>
+        <v>444.34</v>
       </c>
       <c r="D48" t="n">
-        <v>338.6</v>
+        <v>511.24</v>
       </c>
       <c r="E48" t="n">
-        <v>8.94</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>441.12</v>
+        <v>511.24</v>
       </c>
       <c r="D49" t="n">
-        <v>489.38</v>
+        <v>587.09</v>
       </c>
       <c r="E49" t="n">
-        <v>0.992</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>489.38</v>
+        <v>587.09</v>
       </c>
       <c r="D50" t="n">
-        <v>569.3</v>
+        <v>628.29</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>569.3</v>
+        <v>437.14</v>
       </c>
       <c r="D51" t="n">
-        <v>606.4</v>
+        <v>497.18</v>
       </c>
       <c r="E51" t="n">
-        <v>27.48</v>
+        <v>1.232</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>338.6</v>
+        <v>497.18</v>
       </c>
       <c r="D52" t="n">
-        <v>395.12</v>
+        <v>586.22</v>
       </c>
       <c r="E52" t="n">
-        <v>4.908</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>418.12</v>
+        <v>414.6</v>
       </c>
       <c r="D53" t="n">
-        <v>484.54</v>
+        <v>492.74</v>
       </c>
       <c r="E53" t="n">
-        <v>1.516</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>484.54</v>
+        <v>492.74</v>
       </c>
       <c r="D54" t="n">
-        <v>583.01</v>
+        <v>580.77</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1469,21 +1469,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>583.01</v>
+        <v>264.22</v>
       </c>
       <c r="D55" t="n">
-        <v>659.67</v>
+        <v>340.74</v>
       </c>
       <c r="E55" t="n">
-        <v>26.984</v>
+        <v>7.216</v>
       </c>
     </row>
   </sheetData>
